--- a/Libary/MTE_143_P.xlsx
+++ b/Libary/MTE_143_P.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Нове обмеження максимуму на нових перетворювачах 10% замість 20%</t>
         </r>
@@ -47,7 +48,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Нове обмеження максимуму на нових перетворювачах 10% замість 20%</t>
         </r>
@@ -75,7 +77,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>+\- в залежності від коду виходу</t>
         </r>
@@ -131,7 +134,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>+\- в залежності від коду виходу</t>
         </r>
@@ -142,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
   <si>
     <t>перетворювача</t>
   </si>
@@ -287,18 +291,12 @@
     <t>645 ÷ 800 мм. рт. cт</t>
   </si>
   <si>
-    <t>Нормуюче знач. вих. сигналу, mA</t>
-  </si>
-  <si>
     <t>Номінальна напруга, V</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Tenma 72-6805</t>
   </si>
   <si>
@@ -315,9 +313,6 @@
   </si>
   <si>
     <t>075176</t>
-  </si>
-  <si>
-    <t>7 А2H1</t>
   </si>
   <si>
     <t>Визначення основної приведенної похибки в режимі вимірювання активної потужності</t>
@@ -343,23 +338,19 @@
     <t>Висновок:</t>
   </si>
   <si>
-    <t xml:space="preserve"> придатний  </t>
-  </si>
-  <si>
     <t>Підпис</t>
   </si>
   <si>
     <t>Дата:</t>
   </si>
   <si>
-    <t>Виміряне значення вихідного струму, mA
-(активної потужності, W)</t>
-  </si>
-  <si>
     <t>Границі основної приведеної похибки, ± %</t>
   </si>
   <si>
     <t>МТЕ 143</t>
+  </si>
+  <si>
+    <t>Номінальна потужність, W</t>
   </si>
 </sst>
 </file>
@@ -478,7 +469,8 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -633,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,13 +687,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,10 +696,151 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,24 +849,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,129 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,44 +1143,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,42 +1210,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="32" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="52"/>
+      <c r="P3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="69"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,119 +1275,124 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="26">
         <v>0.25</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="26">
         <v>100</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="41" t="s">
+      <c r="N5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="25" t="e">
+        <f>I5*M5*SQRT(3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="27">
-        <v>4</v>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="24">
+        <v>3</v>
       </c>
       <c r="V5" s="13"/>
       <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="N7" s="64" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="N7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="N8" s="62" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="N8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62" t="s">
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1406,28 +1401,28 @@
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="51" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="N9" s="72" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="N9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="49">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="44">
         <v>556621</v>
       </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="50"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1436,28 +1431,28 @@
       <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="N10" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="50"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="N10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -1466,28 +1461,28 @@
       <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="N11" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="N11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1496,54 +1491,54 @@
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="55"/>
+      <c r="F12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="N12" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="N12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="72"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
@@ -1553,116 +1548,116 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="62" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="62" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="62" t="s">
+      <c r="A18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1685,105 +1680,107 @@
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:22" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="23" t="str">
-        <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
+      <c r="A20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="61" t="str">
+        <f>IF(H20="Без аналогового виходу","Нормуюче знач. потужності, W","Нормуюче знач. вих. сигналу, mA")</f>
+        <v>Нормуюче знач. вих. сигналу, mA</v>
+      </c>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="24" t="str">
+        <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5",IF(H20="Без аналогового виходу",Q5,"20"))))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="48"/>
+      <c r="N20" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="65"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79" t="s">
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="str">
+        <f>IF(H20="Без аналогового виходу","Виміряне значення активної потужності, W","Виміряне значення вихідного струму, mA")</f>
+        <v>Виміряне значення вихідного струму, mA</v>
+      </c>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="V21" s="62"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="40"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="17" t="s">
         <v>42</v>
       </c>
@@ -1808,46 +1805,46 @@
       <c r="T22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>0.2</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="28">
         <f>$M$5*A23</f>
         <v>20</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="18">
         <v>1</v>
       </c>
-      <c r="E23" s="34" t="e">
+      <c r="E23" s="28" t="e">
         <f>$I$5*D23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="28">
         <v>1</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="28">
         <v>0</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="58">
         <v>11.547005383792515</v>
       </c>
-      <c r="I23" s="35" t="e">
+      <c r="I23" s="58" t="e">
         <f>K23/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="58">
         <v>11.547005383792515</v>
       </c>
-      <c r="K23" s="35" t="e">
+      <c r="K23" s="58" t="e">
         <f>SQRT(3)*B23*E23*(COS(G23*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="58">
         <v>34.641016151377542</v>
       </c>
       <c r="M23" s="19" t="s">
@@ -1860,7 +1857,7 @@
         <v>45</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="19" t="s">
         <v>45</v>
@@ -1871,53 +1868,53 @@
       <c r="S23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="21" t="e">
+      <c r="T23" s="27" t="e">
         <f>(P23-(($M$20*K23)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23" s="28">
         <f>$E$5</f>
         <v>0.25</v>
       </c>
-      <c r="V23" s="34"/>
+      <c r="V23" s="28"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>0.5</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="28">
         <f t="shared" ref="B24:B35" si="0">$M$5*A24</f>
         <v>50</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="18">
         <v>1</v>
       </c>
-      <c r="E24" s="34" t="e">
+      <c r="E24" s="28" t="e">
         <f t="shared" ref="E24:E35" si="1">$I$5*D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="28">
         <v>2</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="28">
         <v>0</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="58">
         <v>28.867513459481287</v>
       </c>
-      <c r="I24" s="35" t="e">
+      <c r="I24" s="58" t="e">
         <f t="shared" ref="I24:I35" si="2">K24/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="58">
         <v>12.5470053837925</v>
       </c>
-      <c r="K24" s="35" t="e">
+      <c r="K24" s="58" t="e">
         <f t="shared" ref="K24:K35" si="3">SQRT(3)*B24*E24*(COS(G24*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="58">
         <v>35.641016151377499</v>
       </c>
       <c r="M24" s="19" t="s">
@@ -1930,7 +1927,7 @@
         <v>45</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="19" t="s">
         <v>45</v>
@@ -1941,50 +1938,50 @@
       <c r="S24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T24" s="21" t="e">
+      <c r="T24" s="27" t="e">
         <f t="shared" ref="T24:T34" si="4">(P24-(($M$20*K24)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
     </row>
     <row r="25" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>0.8</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="18">
         <v>1</v>
       </c>
-      <c r="E25" s="34" t="e">
+      <c r="E25" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="28">
         <v>3</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="28">
         <v>0</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="58">
         <v>46.188021535170058</v>
       </c>
-      <c r="I25" s="35" t="e">
+      <c r="I25" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="58">
         <v>13.5470053837925</v>
       </c>
-      <c r="K25" s="35" t="e">
+      <c r="K25" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="58">
         <v>36.641016151377499</v>
       </c>
       <c r="M25" s="19" t="s">
@@ -1997,7 +1994,7 @@
         <v>45</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="19" t="s">
         <v>45</v>
@@ -2008,50 +2005,50 @@
       <c r="S25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T25" s="21" t="e">
+      <c r="T25" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>1</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="18">
         <v>1</v>
       </c>
-      <c r="E26" s="34" t="e">
+      <c r="E26" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="28">
         <v>4</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="28">
         <v>0</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="58">
         <v>57.735026918962575</v>
       </c>
-      <c r="I26" s="35" t="e">
+      <c r="I26" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="58">
         <v>14.5470053837925</v>
       </c>
-      <c r="K26" s="35" t="e">
+      <c r="K26" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="58">
         <v>37.641016151377499</v>
       </c>
       <c r="M26" s="19" t="s">
@@ -2064,7 +2061,7 @@
         <v>45</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="19" t="s">
         <v>45</v>
@@ -2075,50 +2072,50 @@
       <c r="S26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T26" s="21" t="e">
+      <c r="T26" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
     </row>
     <row r="27" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="28">
         <f t="shared" si="0"/>
         <v>110.00000000000001</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="18">
         <v>1</v>
       </c>
-      <c r="E27" s="34" t="e">
+      <c r="E27" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="28">
         <v>5</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="28">
         <v>0</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="58">
         <v>69.282032302755084</v>
       </c>
-      <c r="I27" s="35" t="e">
+      <c r="I27" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="58">
         <v>15.5470053837925</v>
       </c>
-      <c r="K27" s="35" t="e">
+      <c r="K27" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="58">
         <v>38.641016151377499</v>
       </c>
       <c r="M27" s="19" t="s">
@@ -2131,7 +2128,7 @@
         <v>45</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="19" t="s">
         <v>45</v>
@@ -2142,50 +2139,50 @@
       <c r="S27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T27" s="21" t="e">
+      <c r="T27" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>1</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="18">
         <v>0.01</v>
       </c>
-      <c r="E28" s="34" t="e">
+      <c r="E28" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="28">
         <v>6</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="28">
         <v>0</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="58">
         <v>0.57735026918962573</v>
       </c>
-      <c r="I28" s="35" t="e">
+      <c r="I28" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="58">
         <v>16.547005383792499</v>
       </c>
-      <c r="K28" s="35" t="e">
+      <c r="K28" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="58">
         <v>39.641016151377499</v>
       </c>
       <c r="M28" s="19" t="s">
@@ -2198,7 +2195,7 @@
         <v>45</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="19" t="s">
         <v>45</v>
@@ -2209,50 +2206,50 @@
       <c r="S28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T28" s="21" t="e">
+      <c r="T28" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
     </row>
     <row r="29" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>1</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="18">
         <v>0.1</v>
       </c>
-      <c r="E29" s="34" t="e">
+      <c r="E29" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="28">
         <v>7</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="28">
         <v>0</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="58">
         <v>5.7735026918962582</v>
       </c>
-      <c r="I29" s="35" t="e">
+      <c r="I29" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="58">
         <v>17.547005383792499</v>
       </c>
-      <c r="K29" s="35" t="e">
+      <c r="K29" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="58">
         <v>40.641016151377499</v>
       </c>
       <c r="M29" s="19" t="s">
@@ -2265,7 +2262,7 @@
         <v>45</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="19" t="s">
         <v>45</v>
@@ -2276,50 +2273,50 @@
       <c r="S29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T29" s="21" t="e">
+      <c r="T29" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
     </row>
     <row r="30" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="18">
         <v>0.5</v>
       </c>
-      <c r="E30" s="34" t="e">
+      <c r="E30" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="28">
         <v>8</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="28">
         <v>0</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="58">
         <v>28.867513459481287</v>
       </c>
-      <c r="I30" s="35" t="e">
+      <c r="I30" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="58">
         <v>18.547005383792499</v>
       </c>
-      <c r="K30" s="35" t="e">
+      <c r="K30" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="58">
         <v>41.641016151377499</v>
       </c>
       <c r="M30" s="19" t="s">
@@ -2332,7 +2329,7 @@
         <v>45</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="19" t="s">
         <v>45</v>
@@ -2343,50 +2340,50 @@
       <c r="S30" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T30" s="21" t="e">
+      <c r="T30" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>1</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E31" s="34" t="e">
+      <c r="E31" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="28">
         <v>9</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="28">
         <v>0</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="58">
         <v>69.282032302755084</v>
       </c>
-      <c r="I31" s="35" t="e">
+      <c r="I31" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="58">
         <v>19.547005383792499</v>
       </c>
-      <c r="K31" s="35" t="e">
+      <c r="K31" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="58">
         <v>42.641016151377499</v>
       </c>
       <c r="M31" s="19" t="s">
@@ -2399,7 +2396,7 @@
         <v>45</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="19" t="s">
         <v>45</v>
@@ -2410,50 +2407,50 @@
       <c r="S31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T31" s="21" t="e">
+      <c r="T31" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
     </row>
     <row r="32" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>1</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="18">
         <v>1</v>
       </c>
-      <c r="E32" s="34" t="e">
+      <c r="E32" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="28">
         <v>10</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="76">
         <v>240</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="77">
         <v>28.867513459481291</v>
       </c>
-      <c r="I32" s="35" t="e">
+      <c r="I32" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="58">
         <v>20.547005383792499</v>
       </c>
-      <c r="K32" s="35" t="e">
+      <c r="K32" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="58">
         <v>43.641016151377499</v>
       </c>
       <c r="M32" s="19" t="s">
@@ -2466,7 +2463,7 @@
         <v>45</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>45</v>
@@ -2477,50 +2474,50 @@
       <c r="S32" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T32" s="21" t="e">
+      <c r="T32" s="27" t="e">
         <f>(P32-(($M$20*K32)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
     </row>
     <row r="33" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>1</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="18">
         <v>1</v>
       </c>
-      <c r="E33" s="34" t="e">
+      <c r="E33" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="28">
         <v>11</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="76">
         <v>330</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="77">
         <v>28.867513459481291</v>
       </c>
-      <c r="I33" s="35" t="e">
+      <c r="I33" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="58">
         <v>21.547005383792499</v>
       </c>
-      <c r="K33" s="35" t="e">
+      <c r="K33" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="58">
         <v>44.641016151377499</v>
       </c>
       <c r="M33" s="19" t="s">
@@ -2533,7 +2530,7 @@
         <v>45</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="19" t="s">
         <v>45</v>
@@ -2544,50 +2541,50 @@
       <c r="S33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="21" t="e">
+      <c r="T33" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
     </row>
     <row r="34" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>1</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="18">
         <v>1</v>
       </c>
-      <c r="E34" s="34" t="e">
+      <c r="E34" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="28">
         <v>12</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="76">
         <v>60</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="77">
         <v>28.867513459481291</v>
       </c>
-      <c r="I34" s="35" t="e">
+      <c r="I34" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="58">
         <v>22.547005383792499</v>
       </c>
-      <c r="K34" s="35" t="e">
+      <c r="K34" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="58">
         <v>45.641016151377499</v>
       </c>
       <c r="M34" s="19" t="s">
@@ -2600,7 +2597,7 @@
         <v>45</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q34" s="19" t="s">
         <v>45</v>
@@ -2611,50 +2608,50 @@
       <c r="S34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T34" s="21" t="e">
+      <c r="T34" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
     </row>
     <row r="35" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>1</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="18">
         <v>1</v>
       </c>
-      <c r="E35" s="34" t="e">
+      <c r="E35" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="28">
         <v>13</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="76">
         <v>150</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="77">
         <v>28.867513459481291</v>
       </c>
-      <c r="I35" s="35" t="e">
+      <c r="I35" s="58" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="58">
         <v>23.547005383792499</v>
       </c>
-      <c r="K35" s="35" t="e">
+      <c r="K35" s="58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="58">
         <v>46.641016151377499</v>
       </c>
       <c r="M35" s="19" t="s">
@@ -2667,7 +2664,7 @@
         <v>45</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q35" s="19" t="s">
         <v>45</v>
@@ -2678,12 +2675,12 @@
       <c r="S35" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T35" s="21" t="e">
+      <c r="T35" s="27" t="e">
         <f>(P35-(($M$20*K35)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2713,38 +2710,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
+      <c r="A63" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="51"/>
+      <c r="F63" s="75"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="33"/>
+      <c r="I63" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="75"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="U63" s="32"/>
-      <c r="V63" s="33"/>
+      <c r="Q63" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="U63" s="51"/>
+      <c r="V63" s="75"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2830,6 +2827,125 @@
     <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="U23:V35"/>
@@ -2854,126 +2970,22 @@
     <mergeCell ref="A16:R16"/>
     <mergeCell ref="A17:R17"/>
     <mergeCell ref="S16:V16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Q63:S63"/>
   </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="I5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B20">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E20">
+      <formula1>"F,I,U,P,Q"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="U5">
+      <formula1>"3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Виберіть значення з випадаючого списку" sqref="H20:I20">
+      <formula1>"0..5,(-5)..0..5,Інше,Без аналогового виходу"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Libary/MTE_143_P.xlsx
+++ b/Libary/MTE_143_P.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
@@ -69,7 +69,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="P32" authorId="0" shapeId="0">
+    <comment ref="G33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="6"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>+150 на РЕСУРС-К2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,20 +95,6 @@
             <charset val="204"/>
           </rPr>
           <t>+\- в залежності від коду виходу</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="6"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>+150 на РЕСУРС-К2</t>
         </r>
       </text>
     </comment>
@@ -112,6 +112,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="P34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>+\- в залежності від коду виходу</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -123,21 +138,6 @@
             <charset val="204"/>
           </rPr>
           <t>-30 на РЕСУРС-К2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>+\- в залежності від коду виходу</t>
         </r>
       </text>
     </comment>
@@ -625,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -708,9 +708,138 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,19 +852,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,122 +861,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,32 +1159,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="46" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,42 +1213,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="57" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="52" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52" t="s">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,44 +1278,44 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="26">
         <v>0.25</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="26">
         <v>100</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="25" t="e">
         <f>I5*M5*SQRT(3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
       <c r="U5" s="24">
         <v>3</v>
       </c>
@@ -1321,78 +1324,78 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="N7" s="43" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="N7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="N8" s="40" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="N8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1401,28 +1404,28 @@
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="N9" s="29" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="N9" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="44">
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="49">
         <v>556621</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1431,28 +1434,28 @@
       <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="N10" s="32" t="s">
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="N10" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="44" t="s">
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -1461,28 +1464,28 @@
       <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="N11" s="32" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="N11" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="44" t="s">
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="50"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1491,28 +1494,28 @@
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="N12" s="32" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="N12" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="44" t="s">
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -1521,24 +1524,24 @@
       <c r="C13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
@@ -1548,116 +1551,116 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="74" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="40" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
     </row>
     <row r="17" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="40" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="40" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1686,101 +1689,101 @@
       <c r="B20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="62"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="61" t="str">
+      <c r="I20" s="47"/>
+      <c r="J20" s="44" t="str">
         <f>IF(H20="Без аналогового виходу","Нормуюче знач. потужності, W","Нормуюче знач. вих. сигналу, mA")</f>
         <v>Нормуюче знач. вих. сигналу, mA</v>
       </c>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="24" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5",IF(H20="Без аналогового виходу",Q5,"20"))))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="65"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="48"/>
     </row>
     <row r="21" spans="1:22" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41" t="s">
+      <c r="F21" s="79"/>
+      <c r="G21" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="H21" s="79"/>
+      <c r="I21" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41" t="s">
+      <c r="J21" s="79"/>
+      <c r="K21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="str">
+      <c r="L21" s="79"/>
+      <c r="M21" s="79" t="str">
         <f>IF(H20="Без аналогового виходу","Виміряне значення активної потужності, W","Виміряне значення вихідного струму, mA")</f>
         <v>Виміряне значення вихідного струму, mA</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="s">
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="V21" s="40"/>
+      <c r="V21" s="62"/>
     </row>
     <row r="22" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
       <c r="M22" s="17" t="s">
         <v>42</v>
       </c>
@@ -1805,46 +1808,46 @@
       <c r="T22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
     </row>
     <row r="23" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>0.2</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="35">
         <f>$M$5*A23</f>
         <v>20</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="18">
         <v>1</v>
       </c>
-      <c r="E23" s="28" t="e">
+      <c r="E23" s="35" t="e">
         <f>$I$5*D23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="35">
         <v>1</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="35">
         <v>0</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="36">
         <v>11.547005383792515</v>
       </c>
-      <c r="I23" s="58" t="e">
+      <c r="I23" s="36" t="e">
         <f>K23/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="36">
         <v>11.547005383792515</v>
       </c>
-      <c r="K23" s="58" t="e">
+      <c r="K23" s="36" t="e">
         <f>SQRT(3)*B23*E23*(COS(G23*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="36">
         <v>34.641016151377542</v>
       </c>
       <c r="M23" s="19" t="s">
@@ -1872,49 +1875,49 @@
         <f>(P23-(($M$20*K23)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="35">
         <f>$E$5</f>
         <v>0.25</v>
       </c>
-      <c r="V23" s="28"/>
+      <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>0.5</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="35">
         <f t="shared" ref="B24:B35" si="0">$M$5*A24</f>
         <v>50</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="18">
         <v>1</v>
       </c>
-      <c r="E24" s="28" t="e">
+      <c r="E24" s="35" t="e">
         <f t="shared" ref="E24:E35" si="1">$I$5*D24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="35">
         <v>2</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="35">
         <v>0</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="36">
         <v>28.867513459481287</v>
       </c>
-      <c r="I24" s="58" t="e">
+      <c r="I24" s="36" t="e">
         <f t="shared" ref="I24:I35" si="2">K24/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="36">
         <v>12.5470053837925</v>
       </c>
-      <c r="K24" s="58" t="e">
+      <c r="K24" s="36" t="e">
         <f t="shared" ref="K24:K35" si="3">SQRT(3)*B24*E24*(COS(G24*PI()/180))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="36">
         <v>35.641016151377499</v>
       </c>
       <c r="M24" s="19" t="s">
@@ -1939,49 +1942,49 @@
         <v>45</v>
       </c>
       <c r="T24" s="27" t="e">
-        <f t="shared" ref="T24:T34" si="4">(P24-(($M$20*K24)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
+        <f t="shared" ref="T24:T31" si="4">(P24-(($M$20*K24)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>0.8</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="35">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="18">
         <v>1</v>
       </c>
-      <c r="E25" s="28" t="e">
+      <c r="E25" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="35">
         <v>3</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="35">
         <v>0</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="36">
         <v>46.188021535170058</v>
       </c>
-      <c r="I25" s="58" t="e">
+      <c r="I25" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="36">
         <v>13.5470053837925</v>
       </c>
-      <c r="K25" s="58" t="e">
+      <c r="K25" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L25" s="36">
         <v>36.641016151377499</v>
       </c>
       <c r="M25" s="19" t="s">
@@ -2009,46 +2012,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>1</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="18">
         <v>1</v>
       </c>
-      <c r="E26" s="28" t="e">
+      <c r="E26" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="35">
         <v>4</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="35">
         <v>0</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="36">
         <v>57.735026918962575</v>
       </c>
-      <c r="I26" s="58" t="e">
+      <c r="I26" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="36">
         <v>14.5470053837925</v>
       </c>
-      <c r="K26" s="58" t="e">
+      <c r="K26" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="36">
         <v>37.641016151377499</v>
       </c>
       <c r="M26" s="19" t="s">
@@ -2076,46 +2079,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="35">
         <f t="shared" si="0"/>
         <v>110.00000000000001</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="18">
         <v>1</v>
       </c>
-      <c r="E27" s="28" t="e">
+      <c r="E27" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="35">
         <v>5</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="35">
         <v>0</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="36">
         <v>69.282032302755084</v>
       </c>
-      <c r="I27" s="58" t="e">
+      <c r="I27" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="36">
         <v>15.5470053837925</v>
       </c>
-      <c r="K27" s="58" t="e">
+      <c r="K27" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="36">
         <v>38.641016151377499</v>
       </c>
       <c r="M27" s="19" t="s">
@@ -2143,46 +2146,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>1</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="18">
         <v>0.01</v>
       </c>
-      <c r="E28" s="28" t="e">
+      <c r="E28" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="35">
         <v>6</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="35">
         <v>0</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="36">
         <v>0.57735026918962573</v>
       </c>
-      <c r="I28" s="58" t="e">
+      <c r="I28" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="36">
         <v>16.547005383792499</v>
       </c>
-      <c r="K28" s="58" t="e">
+      <c r="K28" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="36">
         <v>39.641016151377499</v>
       </c>
       <c r="M28" s="19" t="s">
@@ -2210,46 +2213,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>1</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="18">
         <v>0.1</v>
       </c>
-      <c r="E29" s="28" t="e">
+      <c r="E29" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="35">
         <v>7</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="35">
         <v>0</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="36">
         <v>5.7735026918962582</v>
       </c>
-      <c r="I29" s="58" t="e">
+      <c r="I29" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="36">
         <v>17.547005383792499</v>
       </c>
-      <c r="K29" s="58" t="e">
+      <c r="K29" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="36">
         <v>40.641016151377499</v>
       </c>
       <c r="M29" s="19" t="s">
@@ -2277,46 +2280,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="18">
         <v>0.5</v>
       </c>
-      <c r="E30" s="28" t="e">
+      <c r="E30" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="35">
         <v>8</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="35">
         <v>0</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="36">
         <v>28.867513459481287</v>
       </c>
-      <c r="I30" s="58" t="e">
+      <c r="I30" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="36">
         <v>18.547005383792499</v>
       </c>
-      <c r="K30" s="58" t="e">
+      <c r="K30" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="36">
         <v>41.641016151377499</v>
       </c>
       <c r="M30" s="19" t="s">
@@ -2344,46 +2347,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>1</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E31" s="28" t="e">
+      <c r="E31" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="35">
         <v>9</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="35">
         <v>0</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="36">
         <v>69.282032302755084</v>
       </c>
-      <c r="I31" s="58" t="e">
+      <c r="I31" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="36">
         <v>19.547005383792499</v>
       </c>
-      <c r="K31" s="58" t="e">
+      <c r="K31" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L31" s="58">
+      <c r="L31" s="36">
         <v>42.641016151377499</v>
       </c>
       <c r="M31" s="19" t="s">
@@ -2411,46 +2414,46 @@
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>1</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="18">
         <v>1</v>
       </c>
-      <c r="E32" s="28" t="e">
+      <c r="E32" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="35">
         <v>10</v>
       </c>
-      <c r="G32" s="76">
-        <v>240</v>
-      </c>
-      <c r="H32" s="77">
+      <c r="G32" s="37">
+        <v>60</v>
+      </c>
+      <c r="H32" s="38">
         <v>28.867513459481291</v>
       </c>
-      <c r="I32" s="58" t="e">
+      <c r="I32" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="36">
         <v>20.547005383792499</v>
       </c>
-      <c r="K32" s="58" t="e">
+      <c r="K32" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L32" s="58">
+      <c r="L32" s="36">
         <v>43.641016151377499</v>
       </c>
       <c r="M32" s="19" t="s">
@@ -2474,50 +2477,50 @@
       <c r="S32" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T32" s="27" t="e">
-        <f>(P32-(($M$20*K32)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
+      <c r="T32" s="28" t="e">
+        <f>(P32-(($M$20*K32)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>1</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="18">
         <v>1</v>
       </c>
-      <c r="E33" s="28" t="e">
+      <c r="E33" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="35">
         <v>11</v>
       </c>
-      <c r="G33" s="76">
-        <v>330</v>
-      </c>
-      <c r="H33" s="77">
+      <c r="G33" s="37">
+        <v>150</v>
+      </c>
+      <c r="H33" s="38">
         <v>28.867513459481291</v>
       </c>
-      <c r="I33" s="58" t="e">
+      <c r="I33" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="58">
+      <c r="J33" s="36">
         <v>21.547005383792499</v>
       </c>
-      <c r="K33" s="58" t="e">
+      <c r="K33" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="58">
+      <c r="L33" s="36">
         <v>44.641016151377499</v>
       </c>
       <c r="M33" s="19" t="s">
@@ -2541,50 +2544,50 @@
       <c r="S33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="27" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
+      <c r="T33" s="28" t="e">
+        <f>(P33-(($M$20*K33)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>1</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="18">
         <v>1</v>
       </c>
-      <c r="E34" s="28" t="e">
+      <c r="E34" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="35">
         <v>12</v>
       </c>
-      <c r="G34" s="76">
-        <v>60</v>
-      </c>
-      <c r="H34" s="77">
+      <c r="G34" s="37">
+        <v>240</v>
+      </c>
+      <c r="H34" s="38">
         <v>28.867513459481291</v>
       </c>
-      <c r="I34" s="58" t="e">
+      <c r="I34" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J34" s="58">
+      <c r="J34" s="36">
         <v>22.547005383792499</v>
       </c>
-      <c r="K34" s="58" t="e">
+      <c r="K34" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="36">
         <v>45.641016151377499</v>
       </c>
       <c r="M34" s="19" t="s">
@@ -2608,50 +2611,50 @@
       <c r="S34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T34" s="27" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
+      <c r="T34" s="28" t="e">
+        <f>(P34-(($M$20*K34)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>1</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="18">
         <v>1</v>
       </c>
-      <c r="E35" s="28" t="e">
+      <c r="E35" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="35">
         <v>13</v>
       </c>
-      <c r="G35" s="76">
-        <v>150</v>
-      </c>
-      <c r="H35" s="77">
+      <c r="G35" s="37">
+        <v>330</v>
+      </c>
+      <c r="H35" s="38">
         <v>28.867513459481291</v>
       </c>
-      <c r="I35" s="58" t="e">
+      <c r="I35" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J35" s="58">
+      <c r="J35" s="36">
         <v>23.547005383792499</v>
       </c>
-      <c r="K35" s="58" t="e">
+      <c r="K35" s="36" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="36">
         <v>46.641016151377499</v>
       </c>
       <c r="M35" s="19" t="s">
@@ -2675,12 +2678,12 @@
       <c r="S35" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T35" s="27" t="e">
-        <f>(P35-(($M$20*K35)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))*IF($H$20="(-5)..0..5","1","-1")))/$M$20*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
+      <c r="T35" s="28" t="e">
+        <f>(P35-(($M$20*K35)/(SQRT(3)*$M$5*$I$5*(COS(0*PI()/180)))))/$M$20*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
     </row>
     <row r="36" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2710,38 +2713,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="75"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="78" t="s">
+      <c r="I63" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="75"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="78" t="s">
+      <c r="Q63" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51" t="s">
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="U63" s="51"/>
-      <c r="V63" s="75"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="34"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2827,6 +2830,125 @@
     <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="U23:V35"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="A15:R15"/>
     <mergeCell ref="S15:V15"/>
     <mergeCell ref="R13:U13"/>
@@ -2851,125 +2973,6 @@
     <mergeCell ref="I63:K63"/>
     <mergeCell ref="L63:N63"/>
     <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="U23:V35"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="S16:V16"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="I5"/>
